--- a/trunk/Arquitectura de Negocios/RAM v2.0.xlsx
+++ b/trunk/Arquitectura de Negocios/RAM v2.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="96">
   <si>
     <t>PLANIFICACIÓN</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Pagar Presupuesto de Construcción</t>
+  </si>
+  <si>
+    <t>Realizar Inventario de Talleres de Educación Técnica</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -780,11 +783,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -863,6 +927,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -920,12 +990,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S64"/>
+  <dimension ref="B3:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,23 +1319,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
     </row>
     <row r="4" spans="2:19" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
@@ -1310,10 +1387,10 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1348,8 +1425,8 @@
       <c r="S5" s="25"/>
     </row>
     <row r="6" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="16" t="s">
         <v>40</v>
       </c>
@@ -1374,8 +1451,8 @@
       <c r="S6" s="26"/>
     </row>
     <row r="7" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="16" t="s">
         <v>41</v>
       </c>
@@ -1400,8 +1477,8 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="16" t="s">
         <v>42</v>
       </c>
@@ -1432,8 +1509,8 @@
       <c r="S8" s="26"/>
     </row>
     <row r="9" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="16" t="s">
         <v>43</v>
       </c>
@@ -1458,8 +1535,8 @@
       <c r="S9" s="26"/>
     </row>
     <row r="10" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="17" t="s">
         <v>44</v>
       </c>
@@ -1486,8 +1563,8 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="47" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -1514,8 +1591,8 @@
       <c r="S11" s="28"/>
     </row>
     <row r="12" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="16" t="s">
         <v>46</v>
       </c>
@@ -1540,8 +1617,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="16" t="s">
         <v>47</v>
       </c>
@@ -1564,8 +1641,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="16" t="s">
         <v>48</v>
       </c>
@@ -1590,8 +1667,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="16" t="s">
         <v>49</v>
       </c>
@@ -1616,8 +1693,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="16" t="s">
         <v>50</v>
       </c>
@@ -1640,8 +1717,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="16" t="s">
         <v>51</v>
       </c>
@@ -1664,8 +1741,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="17" t="s">
         <v>52</v>
       </c>
@@ -1688,8 +1765,8 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -1716,8 +1793,8 @@
       <c r="S19" s="28"/>
     </row>
     <row r="20" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="16" t="s">
         <v>54</v>
       </c>
@@ -1744,8 +1821,8 @@
       <c r="S20" s="26"/>
     </row>
     <row r="21" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
@@ -1768,8 +1845,8 @@
       <c r="S21" s="26"/>
     </row>
     <row r="22" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="17" t="s">
         <v>55</v>
       </c>
@@ -1792,10 +1869,10 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -1820,8 +1897,8 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="20" t="s">
         <v>57</v>
       </c>
@@ -1846,8 +1923,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="20" t="s">
         <v>58</v>
       </c>
@@ -1872,8 +1949,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="20" t="s">
         <v>59</v>
       </c>
@@ -1898,8 +1975,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="21" t="s">
         <v>4</v>
       </c>
@@ -1922,8 +1999,8 @@
       <c r="S27" s="27"/>
     </row>
     <row r="28" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -1948,8 +2025,8 @@
       <c r="S28" s="28"/>
     </row>
     <row r="29" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="20" t="s">
         <v>61</v>
       </c>
@@ -1974,8 +2051,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="21" t="s">
         <v>62</v>
       </c>
@@ -1998,8 +2075,8 @@
       <c r="S30" s="27"/>
     </row>
     <row r="31" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="46" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="19" t="s">
@@ -2026,8 +2103,8 @@
       <c r="S31" s="28"/>
     </row>
     <row r="32" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="20" t="s">
         <v>64</v>
       </c>
@@ -2054,8 +2131,8 @@
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="20" t="s">
         <v>65</v>
       </c>
@@ -2078,8 +2155,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="21" t="s">
         <v>66</v>
       </c>
@@ -2104,10 +2181,10 @@
       <c r="S34" s="27"/>
     </row>
     <row r="35" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="22" t="s">
@@ -2132,8 +2209,8 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="23" t="s">
         <v>68</v>
       </c>
@@ -2156,8 +2233,8 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="23" t="s">
         <v>69</v>
       </c>
@@ -2182,8 +2259,8 @@
       <c r="S37" s="26"/>
     </row>
     <row r="38" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="23" t="s">
         <v>70</v>
       </c>
@@ -2206,8 +2283,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="24" t="s">
         <v>71</v>
       </c>
@@ -2236,8 +2313,8 @@
       <c r="S39" s="27"/>
     </row>
     <row r="40" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
-      <c r="C40" s="30" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="22" t="s">
@@ -2274,8 +2351,8 @@
       <c r="S40" s="28"/>
     </row>
     <row r="41" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
-      <c r="C41" s="31"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="23" t="s">
         <v>9</v>
       </c>
@@ -2312,8 +2389,8 @@
       <c r="S41" s="26"/>
     </row>
     <row r="42" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
-      <c r="C42" s="31"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="23" t="s">
         <v>10</v>
       </c>
@@ -2338,8 +2415,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="40"/>
-      <c r="C43" s="31"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="23" t="s">
         <v>73</v>
       </c>
@@ -2364,8 +2441,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
-      <c r="C44" s="31"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="23" t="s">
         <v>74</v>
       </c>
@@ -2387,201 +2464,197 @@
       <c r="R44" s="7"/>
       <c r="S44" s="26"/>
     </row>
-    <row r="45" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="24" t="s">
+    <row r="45" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="42"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="27"/>
-    </row>
-    <row r="46" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="40"/>
-      <c r="C46" s="30" t="s">
+      <c r="E45" s="53"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="55"/>
+    </row>
+    <row r="46" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="42"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="27"/>
+    </row>
+    <row r="47" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="42"/>
+      <c r="C47" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D47" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S46" s="28"/>
-    </row>
-    <row r="47" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="40"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="23" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47" s="28"/>
+    </row>
+    <row r="48" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="42"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S47" s="26"/>
-    </row>
-    <row r="48" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="24" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S48" s="26"/>
+    </row>
+    <row r="49" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="42"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S48" s="27"/>
-    </row>
-    <row r="49" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="40"/>
-      <c r="C49" s="30" t="s">
+      <c r="E49" s="13"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="27"/>
+    </row>
+    <row r="50" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="42"/>
+      <c r="C50" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D50" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="28"/>
-    </row>
-    <row r="50" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="23" t="s">
+      <c r="E50" s="14"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="28"/>
+    </row>
+    <row r="51" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="42"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="26"/>
-    </row>
-    <row r="51" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="40"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="7"/>
@@ -2605,19 +2678,17 @@
       <c r="N51" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="40"/>
-      <c r="C52" s="31"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="7"/>
@@ -2626,22 +2697,34 @@
       <c r="I52" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="40"/>
-      <c r="C53" s="31"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="7"/>
@@ -2650,34 +2733,22 @@
       <c r="I53" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="31"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="7"/>
@@ -2701,19 +2772,19 @@
       <c r="N54" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="O54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="40"/>
-      <c r="C55" s="31"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="7"/>
@@ -2737,19 +2808,19 @@
       <c r="N55" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="40"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="7"/>
@@ -2781,95 +2852,107 @@
       <c r="R56" s="7"/>
       <c r="S56" s="26"/>
     </row>
-    <row r="57" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="24" t="s">
+    <row r="57" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="42"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="26"/>
+    </row>
+    <row r="58" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="42"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="27"/>
-    </row>
-    <row r="58" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="40"/>
-      <c r="C58" s="30" t="s">
+      <c r="E58" s="13"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="27"/>
+    </row>
+    <row r="59" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="42"/>
+      <c r="C59" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D59" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="28"/>
-    </row>
-    <row r="59" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="40"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="23" t="s">
+      <c r="E59" s="14"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="28"/>
+    </row>
+    <row r="60" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="42"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="26"/>
-    </row>
-    <row r="60" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="23" t="s">
-        <v>90</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="7"/>
@@ -2883,28 +2966,22 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="S60" s="26"/>
     </row>
     <row r="61" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="40"/>
-      <c r="C61" s="31"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="H61" s="7"/>
       <c r="I61" s="7" t="s">
         <v>34</v>
       </c>
@@ -2913,7 +2990,9 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
+      <c r="O61" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
@@ -2922,98 +3001,126 @@
       </c>
     </row>
     <row r="62" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="40"/>
-      <c r="C62" s="31"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I62" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="26"/>
+      <c r="S62" s="29" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="63" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="40"/>
-      <c r="C63" s="31"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="H63" s="7"/>
       <c r="I63" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
+      <c r="J63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="26"/>
     </row>
-    <row r="64" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="41"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="24" t="s">
+    <row r="64" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="42"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="26"/>
+    </row>
+    <row r="65" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="43"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="27"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="E3:S3"/>
-    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="C59:C65"/>
     <mergeCell ref="B5:B22"/>
     <mergeCell ref="B23:B34"/>
-    <mergeCell ref="B35:B64"/>
+    <mergeCell ref="B35:B65"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="C19:C22"/>
@@ -3021,9 +3128,9 @@
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="C35:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C57"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Arquitectura de Negocios/RAM v2.0.xlsx
+++ b/trunk/Arquitectura de Negocios/RAM v2.0.xlsx
@@ -927,6 +927,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,16 +1003,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,9 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1319,23 +1317,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
     </row>
     <row r="4" spans="2:19" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
@@ -1387,10 +1385,10 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1425,8 +1423,8 @@
       <c r="S5" s="25"/>
     </row>
     <row r="6" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="16" t="s">
         <v>40</v>
       </c>
@@ -1451,8 +1449,8 @@
       <c r="S6" s="26"/>
     </row>
     <row r="7" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="16" t="s">
         <v>41</v>
       </c>
@@ -1477,8 +1475,8 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16" t="s">
         <v>42</v>
       </c>
@@ -1509,8 +1507,8 @@
       <c r="S8" s="26"/>
     </row>
     <row r="9" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="16" t="s">
         <v>43</v>
       </c>
@@ -1535,8 +1533,8 @@
       <c r="S9" s="26"/>
     </row>
     <row r="10" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="17" t="s">
         <v>44</v>
       </c>
@@ -1563,8 +1561,8 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -1591,8 +1589,8 @@
       <c r="S11" s="28"/>
     </row>
     <row r="12" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="16" t="s">
         <v>46</v>
       </c>
@@ -1617,8 +1615,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="16" t="s">
         <v>47</v>
       </c>
@@ -1641,8 +1639,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="16" t="s">
         <v>48</v>
       </c>
@@ -1667,8 +1665,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="16" t="s">
         <v>49</v>
       </c>
@@ -1693,8 +1691,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="16" t="s">
         <v>50</v>
       </c>
@@ -1717,8 +1715,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="16" t="s">
         <v>51</v>
       </c>
@@ -1741,8 +1739,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="17" t="s">
         <v>52</v>
       </c>
@@ -1765,8 +1763,8 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -1793,8 +1791,8 @@
       <c r="S19" s="28"/>
     </row>
     <row r="20" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="16" t="s">
         <v>54</v>
       </c>
@@ -1821,8 +1819,8 @@
       <c r="S20" s="26"/>
     </row>
     <row r="21" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
@@ -1845,8 +1843,8 @@
       <c r="S21" s="26"/>
     </row>
     <row r="22" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="17" t="s">
         <v>55</v>
       </c>
@@ -1869,10 +1867,10 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -1897,8 +1895,8 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="20" t="s">
         <v>57</v>
       </c>
@@ -1923,8 +1921,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="20" t="s">
         <v>58</v>
       </c>
@@ -1949,8 +1947,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="20" t="s">
         <v>59</v>
       </c>
@@ -1975,8 +1973,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="21" t="s">
         <v>4</v>
       </c>
@@ -1999,8 +1997,8 @@
       <c r="S27" s="27"/>
     </row>
     <row r="28" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
-      <c r="C28" s="48" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -2025,8 +2023,8 @@
       <c r="S28" s="28"/>
     </row>
     <row r="29" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="20" t="s">
         <v>61</v>
       </c>
@@ -2051,8 +2049,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="39"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="21" t="s">
         <v>62</v>
       </c>
@@ -2075,8 +2073,8 @@
       <c r="S30" s="27"/>
     </row>
     <row r="31" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="48" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="52" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="19" t="s">
@@ -2103,8 +2101,8 @@
       <c r="S31" s="28"/>
     </row>
     <row r="32" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="20" t="s">
         <v>64</v>
       </c>
@@ -2131,8 +2129,8 @@
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="20" t="s">
         <v>65</v>
       </c>
@@ -2155,8 +2153,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="21" t="s">
         <v>66</v>
       </c>
@@ -2181,10 +2179,10 @@
       <c r="S34" s="27"/>
     </row>
     <row r="35" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="22" t="s">
@@ -2209,8 +2207,8 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="23" t="s">
         <v>68</v>
       </c>
@@ -2233,8 +2231,8 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="42"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="23" t="s">
         <v>69</v>
       </c>
@@ -2259,8 +2257,8 @@
       <c r="S37" s="26"/>
     </row>
     <row r="38" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="23" t="s">
         <v>70</v>
       </c>
@@ -2283,8 +2281,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="42"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="24" t="s">
         <v>71</v>
       </c>
@@ -2313,8 +2311,8 @@
       <c r="S39" s="27"/>
     </row>
     <row r="40" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="22" t="s">
@@ -2351,8 +2349,8 @@
       <c r="S40" s="28"/>
     </row>
     <row r="41" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="23" t="s">
         <v>9</v>
       </c>
@@ -2389,8 +2387,8 @@
       <c r="S41" s="26"/>
     </row>
     <row r="42" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="23" t="s">
         <v>10</v>
       </c>
@@ -2415,8 +2413,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="23" t="s">
         <v>73</v>
       </c>
@@ -2441,8 +2439,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="23" t="s">
         <v>74</v>
       </c>
@@ -2465,42 +2463,42 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="52" t="s">
+      <c r="B45" s="46"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="K45" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="L45" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="M45" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="55"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="33"/>
     </row>
     <row r="46" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="42"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="24" t="s">
         <v>95</v>
       </c>
@@ -2529,8 +2527,8 @@
       <c r="S46" s="27"/>
     </row>
     <row r="47" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="46"/>
+      <c r="C47" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="22" t="s">
@@ -2563,8 +2561,8 @@
       <c r="S47" s="28"/>
     </row>
     <row r="48" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="23" t="s">
         <v>77</v>
       </c>
@@ -2589,8 +2587,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="42"/>
-      <c r="C49" s="34"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="24" t="s">
         <v>78</v>
       </c>
@@ -2615,8 +2613,8 @@
       <c r="S49" s="27"/>
     </row>
     <row r="50" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="42"/>
-      <c r="C50" s="32" t="s">
+      <c r="B50" s="46"/>
+      <c r="C50" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="22" t="s">
@@ -2651,8 +2649,8 @@
       <c r="S50" s="28"/>
     </row>
     <row r="51" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="23" t="s">
         <v>80</v>
       </c>
@@ -2685,8 +2683,8 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="23" t="s">
         <v>81</v>
       </c>
@@ -2721,8 +2719,8 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="23" t="s">
         <v>82</v>
       </c>
@@ -2745,8 +2743,8 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="33"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="23" t="s">
         <v>83</v>
       </c>
@@ -2781,8 +2779,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
-      <c r="C55" s="33"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="23" t="s">
         <v>84</v>
       </c>
@@ -2817,8 +2815,8 @@
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="23" t="s">
         <v>85</v>
       </c>
@@ -2853,8 +2851,8 @@
       <c r="S56" s="26"/>
     </row>
     <row r="57" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="23" t="s">
         <v>86</v>
       </c>
@@ -2889,8 +2887,8 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="42"/>
-      <c r="C58" s="34"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="24" t="s">
         <v>87</v>
       </c>
@@ -2923,8 +2921,8 @@
       <c r="S58" s="27"/>
     </row>
     <row r="59" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
-      <c r="C59" s="32" t="s">
+      <c r="B59" s="46"/>
+      <c r="C59" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="22" t="s">
@@ -2949,8 +2947,8 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
-      <c r="C60" s="33"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="23" t="s">
         <v>89</v>
       </c>
@@ -2973,8 +2971,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="42"/>
-      <c r="C61" s="33"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="23" t="s">
         <v>90</v>
       </c>
@@ -3001,8 +2999,8 @@
       </c>
     </row>
     <row r="62" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
-      <c r="C62" s="33"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="23" t="s">
         <v>91</v>
       </c>
@@ -3029,8 +3027,8 @@
       </c>
     </row>
     <row r="63" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="42"/>
-      <c r="C63" s="33"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="23" t="s">
         <v>92</v>
       </c>
@@ -3063,8 +3061,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="23" t="s">
         <v>93</v>
       </c>
@@ -3089,8 +3087,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="43"/>
-      <c r="C65" s="34"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="24" t="s">
         <v>94</v>
       </c>
